--- a/03_OpenDSS_Circuits/Bellhaven_Circuit_Opendss/Loads_Text.xlsx
+++ b/03_OpenDSS_Circuits/Bellhaven_Circuit_Opendss/Loads_Text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="1135">
   <si>
     <t>New</t>
   </si>
@@ -3397,19 +3397,28 @@
     <t>kWh=18.000000 NumCust=1.000000 ! KW= 4.48151</t>
   </si>
   <si>
-    <t>Load.258851180-2_1</t>
-  </si>
-  <si>
-    <t>Load.258851069-2_2</t>
-  </si>
-  <si>
     <t>XFKVA=5.000000 PF= 0.98</t>
   </si>
   <si>
     <t>NumCust=0.000000 ! KW= 1.155175</t>
   </si>
   <si>
-    <t>Load.259005026-2_2</t>
+    <t>Bus1=258851185.1</t>
+  </si>
+  <si>
+    <t>Load.258851185_1</t>
+  </si>
+  <si>
+    <t>Load.260874526_3</t>
+  </si>
+  <si>
+    <t>Bus1=260874526.3</t>
+  </si>
+  <si>
+    <t>Load.259005065_2</t>
+  </si>
+  <si>
+    <t>Bus1=259005065.2</t>
   </si>
 </sst>
 </file>
@@ -3425,12 +3434,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3445,8 +3460,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3751,7 +3767,7 @@
   <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I397" sqref="I397"/>
+      <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,32 +3928,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8987,32 +9003,32 @@
         <v>503</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>490</v>
-      </c>
-      <c r="F181" t="s">
-        <v>4</v>
-      </c>
-      <c r="G181">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H181" t="s">
+    <row r="181" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="1" t="s">
         <v>506</v>
       </c>
     </row>
@@ -10843,32 +10859,32 @@
         <v>678</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>0</v>
-      </c>
-      <c r="B245" t="s">
-        <v>679</v>
-      </c>
-      <c r="C245" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245" t="s">
-        <v>680</v>
-      </c>
-      <c r="F245" t="s">
-        <v>4</v>
-      </c>
-      <c r="G245">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H245" t="s">
+    <row r="245" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G245" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H245" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -12983,10 +12999,10 @@
         <v>7.1997690531177803</v>
       </c>
       <c r="H318" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I318" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -13047,32 +13063,32 @@
         <v>891</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C321" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
-      </c>
-      <c r="E321" t="s">
+    <row r="321" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="1">
+        <v>1</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F321" t="s">
-        <v>4</v>
-      </c>
-      <c r="G321">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H321" t="s">
+      <c r="F321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G321" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H321" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I321" t="s">
+      <c r="I321" s="1" t="s">
         <v>892</v>
       </c>
     </row>
@@ -15251,32 +15267,32 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>0</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C397" t="s">
-        <v>2</v>
-      </c>
-      <c r="D397">
-        <v>1</v>
-      </c>
-      <c r="E397" t="s">
-        <v>22</v>
-      </c>
-      <c r="F397" t="s">
-        <v>4</v>
-      </c>
-      <c r="G397">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H397" t="s">
+    <row r="397" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D397" s="1">
+        <v>1</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G397" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H397" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I397" t="s">
+      <c r="I397" s="1" t="s">
         <v>212</v>
       </c>
     </row>
